--- a/data/SarmientoPublications2.xlsx
+++ b/data/SarmientoPublications2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="112">
   <si>
     <t>Physical</t>
   </si>
@@ -39,15 +39,9 @@
     <t>Biological</t>
   </si>
   <si>
-    <t>Chemcial</t>
-  </si>
-  <si>
     <t>Economics</t>
   </si>
   <si>
-    <t xml:space="preserve">Chemical </t>
-  </si>
-  <si>
     <t>chlorophyll</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>silicon</t>
   </si>
   <si>
-    <t xml:space="preserve">oxygen </t>
-  </si>
-  <si>
     <t>carbon-13</t>
   </si>
   <si>
@@ -255,9 +246,6 @@
     <t>zooplankton</t>
   </si>
   <si>
-    <t xml:space="preserve"> helium-3</t>
-  </si>
-  <si>
     <t>plutonium</t>
   </si>
   <si>
@@ -360,16 +348,10 @@
     <t>nutrients</t>
   </si>
   <si>
-    <t>phytoplanton</t>
-  </si>
-  <si>
     <t>trees</t>
   </si>
   <si>
     <t>carbon-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fish </t>
   </si>
   <si>
     <t>vegetation</t>
@@ -978,7 +960,7 @@
   <dimension ref="A1:N205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -992,13 +974,13 @@
         <v>1976</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1006,16 +988,16 @@
         <v>1976</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1023,13 +1005,13 @@
         <v>1976</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1037,13 +1019,13 @@
         <v>1978</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1051,13 +1033,13 @@
         <v>1980</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1065,13 +1047,13 @@
         <v>1980</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1079,7 +1061,7 @@
         <v>1982</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -1090,7 +1072,7 @@
         <v>1982</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -1104,13 +1086,13 @@
         <v>1982</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1118,7 +1100,7 @@
         <v>1983</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -1132,7 +1114,7 @@
         <v>1983</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -1146,13 +1128,13 @@
         <v>1984</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1160,7 +1142,7 @@
         <v>1985</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -1171,16 +1153,16 @@
         <v>1985</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
         <v>58</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1188,16 +1170,16 @@
         <v>1985</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1205,7 +1187,7 @@
         <v>1985</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1214,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1222,19 +1204,19 @@
         <v>1985</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1242,19 +1224,19 @@
         <v>1985</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1262,16 +1244,16 @@
         <v>1986</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
       </c>
       <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
         <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1279,13 +1261,13 @@
         <v>1986</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1293,7 +1275,7 @@
         <v>1986</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -1307,13 +1289,13 @@
         <v>1986</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1321,19 +1303,19 @@
         <v>1986</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1341,7 +1323,7 @@
         <v>1986</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -1352,13 +1334,13 @@
         <v>1986</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1366,7 +1348,7 @@
         <v>1986</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -1377,13 +1359,13 @@
         <v>1986</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1391,43 +1373,43 @@
         <v>1987</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G28" t="s">
         <v>2</v>
       </c>
       <c r="H28" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
         <v>71</v>
       </c>
-      <c r="I28" t="s">
-        <v>62</v>
-      </c>
-      <c r="J28" t="s">
-        <v>72</v>
-      </c>
-      <c r="K28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L28" t="s">
-        <v>74</v>
-      </c>
       <c r="M28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="32">
@@ -1435,16 +1417,16 @@
         <v>1988</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1452,7 +1434,7 @@
         <v>1988</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -1466,22 +1448,22 @@
         <v>1988</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1489,7 +1471,7 @@
         <v>1988</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -1503,7 +1485,7 @@
         <v>1989</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -1512,10 +1494,10 @@
         <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1523,7 +1505,7 @@
         <v>1990</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -1532,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1540,7 +1522,7 @@
         <v>1990</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -1554,7 +1536,7 @@
         <v>1990</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -1566,13 +1548,13 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1580,22 +1562,22 @@
         <v>1991</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1603,16 +1585,16 @@
         <v>1991</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1620,19 +1602,19 @@
         <v>1991</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1640,22 +1622,22 @@
         <v>1991</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1663,13 +1645,13 @@
         <v>1991</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1677,7 +1659,7 @@
         <v>1991</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
@@ -1686,7 +1668,7 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1694,19 +1676,19 @@
         <v>1991</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s">
         <v>3</v>
@@ -1717,16 +1699,16 @@
         <v>1992</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1734,13 +1716,13 @@
         <v>1992</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1748,16 +1730,16 @@
         <v>1992</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1765,16 +1747,16 @@
         <v>1992</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1782,22 +1764,22 @@
         <v>1992</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F48" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1805,22 +1787,22 @@
         <v>1992</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1828,13 +1810,13 @@
         <v>1993</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1842,22 +1824,22 @@
         <v>1993</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -1865,31 +1847,31 @@
         <v>1993</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F52" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I52" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -1897,13 +1879,13 @@
         <v>1993</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -1911,13 +1893,13 @@
         <v>1993</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -1925,28 +1907,28 @@
         <v>1993</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I55" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -1954,7 +1936,7 @@
         <v>1994</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -1968,25 +1950,25 @@
         <v>1994</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E57" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F57" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s">
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -1994,13 +1976,13 @@
         <v>1994</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2008,13 +1990,13 @@
         <v>1995</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
         <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2022,13 +2004,13 @@
         <v>1995</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2036,28 +2018,28 @@
         <v>1995</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
       </c>
       <c r="D61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
         <v>61</v>
       </c>
-      <c r="E61" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" t="s">
-        <v>63</v>
-      </c>
       <c r="H61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="32">
@@ -2065,16 +2047,16 @@
         <v>1995</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E62" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2082,16 +2064,16 @@
         <v>1995</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -2099,16 +2081,16 @@
         <v>1996</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2116,13 +2098,13 @@
         <v>1996</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2130,13 +2112,13 @@
         <v>1996</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2144,25 +2126,25 @@
         <v>1996</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E67" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G67" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2170,13 +2152,13 @@
         <v>1997</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E68" t="s">
         <v>3</v>
@@ -2187,13 +2169,13 @@
         <v>1998</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2201,13 +2183,13 @@
         <v>1998</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2215,13 +2197,13 @@
         <v>1999</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2229,13 +2211,13 @@
         <v>1998</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2243,13 +2225,13 @@
         <v>1999</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2257,13 +2239,13 @@
         <v>1999</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2271,13 +2253,13 @@
         <v>1999</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2285,13 +2267,13 @@
         <v>1999</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2299,13 +2281,13 @@
         <v>1999</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2313,13 +2295,13 @@
         <v>2000</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2327,13 +2309,13 @@
         <v>2000</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2341,13 +2323,13 @@
         <v>2000</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E80" t="s">
         <v>3</v>
@@ -2358,13 +2340,13 @@
         <v>2000</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -2372,13 +2354,13 @@
         <v>2000</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -2386,13 +2368,13 @@
         <v>2000</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E83" t="s">
         <v>3</v>
@@ -2403,16 +2385,16 @@
         <v>2001</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E84" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -2420,16 +2402,16 @@
         <v>2001</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E85" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2437,13 +2419,13 @@
         <v>2001</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -2451,13 +2433,13 @@
         <v>2001</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C87" t="s">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E87" t="s">
         <v>3</v>
@@ -2468,7 +2450,7 @@
         <v>2001</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
@@ -2477,7 +2459,7 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -2485,13 +2467,13 @@
         <v>2002</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -2499,13 +2481,13 @@
         <v>2002</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -2513,19 +2495,19 @@
         <v>2002</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E91" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F91" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G91" t="s">
         <v>3</v>
@@ -2536,13 +2518,13 @@
         <v>2002</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -2550,16 +2532,16 @@
         <v>2002</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E93" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -2567,31 +2549,31 @@
         <v>2002</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E94" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F94" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G94" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H94" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I94" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J94" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -2599,31 +2581,31 @@
         <v>2002</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E95" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G95" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H95" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I95" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J95" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -2631,13 +2613,13 @@
         <v>2002</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -2645,28 +2627,28 @@
         <v>2002</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E97" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F97" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G97" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H97" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I97" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -2674,13 +2656,13 @@
         <v>2002</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -2688,25 +2670,25 @@
         <v>2002</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E99" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F99" t="s">
+        <v>95</v>
+      </c>
+      <c r="G99" t="s">
+        <v>98</v>
+      </c>
+      <c r="H99" t="s">
         <v>99</v>
-      </c>
-      <c r="G99" t="s">
-        <v>102</v>
-      </c>
-      <c r="H99" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -2714,13 +2696,13 @@
         <v>2003</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -2728,16 +2710,16 @@
         <v>2003</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E101" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -2745,13 +2727,13 @@
         <v>2003</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -2759,16 +2741,16 @@
         <v>2003</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -2776,19 +2758,19 @@
         <v>2003</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E104" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F104" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -2796,13 +2778,13 @@
         <v>2003</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -2810,13 +2792,13 @@
         <v>2003</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -2824,13 +2806,13 @@
         <v>2003</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -2838,13 +2820,13 @@
         <v>2003</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -2852,19 +2834,19 @@
         <v>2003</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E109" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F109" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -2872,13 +2854,13 @@
         <v>2003</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -2886,16 +2868,16 @@
         <v>2004</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E111" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -2903,19 +2885,19 @@
         <v>2004</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E112" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F112" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -2923,13 +2905,13 @@
         <v>2004</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -2937,19 +2919,19 @@
         <v>2004</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E114" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F114" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -2957,13 +2939,13 @@
         <v>2004</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -2971,13 +2953,13 @@
         <v>2004</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -2985,16 +2967,16 @@
         <v>2004</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C117" t="s">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E117" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -3002,13 +2984,13 @@
         <v>2004</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C118" t="s">
         <v>0</v>
       </c>
       <c r="D118" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E118" t="s">
         <v>3</v>
@@ -3019,16 +3001,16 @@
         <v>2005</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
       </c>
       <c r="D119" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E119" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -3036,22 +3018,22 @@
         <v>2005</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E120" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F120" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G120" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -3059,13 +3041,13 @@
         <v>2006</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -3073,16 +3055,16 @@
         <v>2006</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E122" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -3090,13 +3072,13 @@
         <v>2006</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -3104,37 +3086,37 @@
         <v>2006</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E124" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F124" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G124" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H124" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I124" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J124" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K124" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L124" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -3142,13 +3124,13 @@
         <v>2006</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -3156,13 +3138,13 @@
         <v>2006</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -3170,28 +3152,28 @@
         <v>2006</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
       </c>
       <c r="D127" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E127" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F127" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G127" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H127" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I127" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -3199,19 +3181,19 @@
         <v>2007</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E128" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F128" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -3219,13 +3201,13 @@
         <v>2007</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -3233,13 +3215,13 @@
         <v>2007</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -3247,13 +3229,13 @@
         <v>2007</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -3261,25 +3243,25 @@
         <v>2007</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E132" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F132" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G132" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H132" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -3287,28 +3269,28 @@
         <v>2007</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E133" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F133" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G133" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H133" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I133" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -3316,16 +3298,16 @@
         <v>2007</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E134" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -3333,7 +3315,7 @@
         <v>2007</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
@@ -3342,13 +3324,13 @@
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F135" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G135" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -3356,13 +3338,13 @@
         <v>2007</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -3370,25 +3352,25 @@
         <v>2007</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E137" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F137" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G137" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H137" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -3396,13 +3378,13 @@
         <v>2008</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -3410,31 +3392,31 @@
         <v>2008</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E139" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F139" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G139" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H139" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I139" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J139" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -3442,13 +3424,13 @@
         <v>2008</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -3456,13 +3438,13 @@
         <v>2008</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -3470,16 +3452,16 @@
         <v>2008</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E142" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -3487,16 +3469,16 @@
         <v>2008</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E143" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -3504,16 +3486,16 @@
         <v>2009</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E144" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -3521,13 +3503,13 @@
         <v>2009</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C145" t="s">
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -3535,16 +3517,16 @@
         <v>2009</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E146" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -3552,13 +3534,13 @@
         <v>2009</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -3566,16 +3548,16 @@
         <v>2009</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E148" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F148" t="s">
         <v>3</v>
@@ -3586,13 +3568,13 @@
         <v>2009</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E149" t="s">
         <v>3</v>
@@ -3603,13 +3585,13 @@
         <v>2009</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -3617,16 +3599,16 @@
         <v>2010</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E151" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -3634,13 +3616,13 @@
         <v>2010</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -3648,13 +3630,13 @@
         <v>2010</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -3662,13 +3644,13 @@
         <v>2010</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -3676,22 +3658,22 @@
         <v>2010</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E155" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F155" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G155" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="32">
@@ -3699,16 +3681,16 @@
         <v>2010</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E156" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -3716,16 +3698,16 @@
         <v>2010</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E157" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -3733,25 +3715,25 @@
         <v>2010</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E158" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F158" t="s">
         <v>3</v>
       </c>
       <c r="G158" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H158" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -3759,16 +3741,16 @@
         <v>2010</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E159" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -3776,19 +3758,19 @@
         <v>2011</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E160" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F160" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="G160" t="s">
         <v>3</v>
@@ -3799,7 +3781,7 @@
         <v>2011</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C161" t="s">
         <v>0</v>
@@ -3810,13 +3792,13 @@
         <v>2011</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C162" t="s">
         <v>0</v>
       </c>
       <c r="D162" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -3824,16 +3806,16 @@
         <v>2011</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E163" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -3841,16 +3823,16 @@
         <v>2011</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
       </c>
       <c r="D164" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -3858,16 +3840,16 @@
         <v>2011</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C165" t="s">
         <v>0</v>
       </c>
       <c r="D165" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E165" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -3875,7 +3857,7 @@
         <v>2011</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C166" t="s">
         <v>0</v>
@@ -3886,13 +3868,13 @@
         <v>2012</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C167" t="s">
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="32">
@@ -3900,10 +3882,10 @@
         <v>2012</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C168" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -3911,19 +3893,19 @@
         <v>2012</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E169" t="s">
         <v>3</v>
       </c>
       <c r="F169" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -3931,19 +3913,19 @@
         <v>2012</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E170" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F170" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -3951,22 +3933,22 @@
         <v>2012</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C171" t="s">
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E171" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F171" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G171" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -3974,13 +3956,13 @@
         <v>2012</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C172" t="s">
         <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -3988,13 +3970,13 @@
         <v>2012</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E173" t="s">
         <v>3</v>
@@ -4005,13 +3987,13 @@
         <v>2013</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4019,13 +4001,13 @@
         <v>2013</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C175" t="s">
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4033,16 +4015,16 @@
         <v>2013</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
       </c>
       <c r="D176" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E176" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4050,13 +4032,13 @@
         <v>2013</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C177" t="s">
         <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4064,7 +4046,7 @@
         <v>2013</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C178" t="s">
         <v>0</v>
@@ -4075,13 +4057,13 @@
         <v>2013</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C179" t="s">
         <v>1</v>
       </c>
       <c r="D179" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4089,22 +4071,22 @@
         <v>2013</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E180" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="F180" t="s">
         <v>3</v>
       </c>
       <c r="G180" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4112,10 +4094,10 @@
         <v>2013</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4123,7 +4105,7 @@
         <v>2013</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
@@ -4134,16 +4116,16 @@
         <v>2013</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E183" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4151,13 +4133,13 @@
         <v>2013</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4165,16 +4147,16 @@
         <v>2013</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
       </c>
       <c r="D185" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E185" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4182,13 +4164,13 @@
         <v>2013</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C186" t="s">
         <v>0</v>
       </c>
       <c r="D186" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4196,13 +4178,13 @@
         <v>2014</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C187" t="s">
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4210,13 +4192,13 @@
         <v>2014</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
       </c>
       <c r="D188" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4224,13 +4206,13 @@
         <v>2014</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4238,13 +4220,13 @@
         <v>2014</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C190" t="s">
         <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="32">
@@ -4252,13 +4234,13 @@
         <v>2014</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4266,19 +4248,19 @@
         <v>2014</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E192" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F192" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -4286,16 +4268,16 @@
         <v>2014</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C193" t="s">
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E193" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -4303,16 +4285,16 @@
         <v>2014</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C194" t="s">
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E194" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -4320,13 +4302,13 @@
         <v>2014</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -4334,19 +4316,19 @@
         <v>2014</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C196" t="s">
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E196" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F196" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -4354,13 +4336,13 @@
         <v>2015</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C197" t="s">
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -4368,13 +4350,13 @@
         <v>2015</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C198" t="s">
         <v>0</v>
       </c>
       <c r="D198" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -4382,25 +4364,25 @@
         <v>2015</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E199" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F199" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G199" t="s">
         <v>3</v>
       </c>
       <c r="H199" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -4408,16 +4390,16 @@
         <v>2015</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C200" t="s">
         <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E200" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -4425,7 +4407,7 @@
         <v>2015</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C201" t="s">
         <v>0</v>
@@ -4436,33 +4418,33 @@
         <v>2015</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
       </c>
       <c r="D202" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
       </c>
       <c r="D203" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -4470,19 +4452,19 @@
         <v>2015</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
         <v>0</v>
       </c>
       <c r="D204" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E204" t="s">
         <v>3</v>
       </c>
       <c r="F204" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="32">
@@ -4490,16 +4472,16 @@
         <v>2015</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E205" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
